--- a/biology/Médecine/Fred_Siguier/Fred_Siguier.xlsx
+++ b/biology/Médecine/Fred_Siguier/Fred_Siguier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fred Siguier, né le 5 mars 1909 à Saint-Louis-du-Sénégal[1] et mort le 27 janvier 1972 à Paris 14e[2], est un médecin interniste français, ayant enseigné à la faculté de médecine de Paris, précurseur des recherches sur les maladies systémiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fred Siguier, né le 5 mars 1909 à Saint-Louis-du-Sénégal et mort le 27 janvier 1972 à Paris 14e, est un médecin interniste français, ayant enseigné à la faculté de médecine de Paris, précurseur des recherches sur les maladies systémiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de magistrat colonial, il est le neveu de Charles Napoléon Siguier, élève de Charcot. Après un début de carrière dans les grands services hospitaliers de Paris, il s'engage volontairement dans le corps expéditionnaire franco-britannique qui débarque à Narvik en 1940. Après guerre, il fait la campagne d’Indochine et devient,  à Tenon, puis à la Pitié et à Cochin, "le" grand patron de la Médecine interne à Paris.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Modalités cliniques et évolutives de l'ictère chez les cirrhotiques, [Thèse pour le doctorat en Médecine], Paris, Amédée Legrand, 1938.
 Maladies-vedettes : maladies d'avenir, maladies quotidiennes, maladies d'exception , Paris, Masson, 1957.
